--- a/data_year/zb/对外经济贸易/按方式分外商投资额/项目.xlsx
+++ b/data_year/zb/对外经济贸易/按方式分外商投资额/项目.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,519 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
-        <v>22347</v>
+        <v>27406</v>
       </c>
       <c r="D2" t="n">
-        <v>8378</v>
+        <v>4970</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>22347</v>
+        <v>27420</v>
       </c>
       <c r="G2" t="n">
-        <v>12196</v>
+        <v>22085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589</v>
+        <v>284</v>
       </c>
       <c r="C3" t="n">
-        <v>26140</v>
+        <v>27712</v>
       </c>
       <c r="D3" t="n">
-        <v>8893</v>
+        <v>5005</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>26140</v>
+        <v>27717</v>
       </c>
       <c r="G3" t="n">
-        <v>15643</v>
+        <v>22388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1595</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
-        <v>34171</v>
+        <v>24925</v>
       </c>
       <c r="D4" t="n">
-        <v>10380</v>
+        <v>4355</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>34171</v>
+        <v>24934</v>
       </c>
       <c r="G4" t="n">
-        <v>22173</v>
+        <v>20352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1547</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n">
-        <v>41081</v>
+        <v>22773</v>
       </c>
       <c r="D5" t="n">
-        <v>12521</v>
+        <v>4476</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>41081</v>
+        <v>22819</v>
       </c>
       <c r="G5" t="n">
-        <v>26943</v>
+        <v>18125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>43664</v>
+        <v>23778</v>
       </c>
       <c r="D6" t="n">
-        <v>11570</v>
+        <v>4824</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>43664</v>
+        <v>23794</v>
       </c>
       <c r="G6" t="n">
-        <v>30708</v>
+        <v>18809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1166</v>
+        <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>44001</v>
+        <v>26575</v>
       </c>
       <c r="D7" t="n">
-        <v>10480</v>
+        <v>5989</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F7" t="n">
-        <v>44001</v>
+        <v>26584</v>
       </c>
       <c r="G7" t="n">
-        <v>32308</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
-        <v>41473</v>
+        <v>27900</v>
       </c>
       <c r="D8" t="n">
-        <v>10223</v>
+        <v>6662</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F8" t="n">
-        <v>41473</v>
+        <v>27908</v>
       </c>
       <c r="G8" t="n">
-        <v>30164</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>641</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>37871</v>
+        <v>35652</v>
       </c>
       <c r="D9" t="n">
-        <v>7649</v>
+        <v>8364</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="F9" t="n">
-        <v>37871</v>
+        <v>35662</v>
       </c>
       <c r="G9" t="n">
-        <v>29543</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468</v>
+        <v>107</v>
       </c>
       <c r="C10" t="n">
-        <v>27514</v>
+        <v>60533</v>
       </c>
       <c r="D10" t="n">
-        <v>4612</v>
+        <v>10170</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F10" t="n">
-        <v>27514</v>
+        <v>60560</v>
       </c>
       <c r="G10" t="n">
-        <v>22396</v>
+        <v>50106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>23435</v>
+        <v>40888</v>
       </c>
       <c r="D11" t="n">
-        <v>4283</v>
+        <v>10077</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F11" t="n">
-        <v>23435</v>
+        <v>40910</v>
       </c>
       <c r="G11" t="n">
-        <v>18741</v>
+        <v>30533</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>300</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>27406</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4970</v>
-      </c>
-      <c r="E12" t="n">
-        <v>51</v>
-      </c>
+        <v>38570</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>27406</v>
-      </c>
-      <c r="G12" t="n">
-        <v>22085</v>
-      </c>
+        <v>38578</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>284</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>27712</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5005</v>
-      </c>
-      <c r="E13" t="n">
-        <v>35</v>
-      </c>
+        <v>47643</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>27712</v>
-      </c>
-      <c r="G13" t="n">
-        <v>22388</v>
-      </c>
+        <v>47647</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>166</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24925</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4355</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>24925</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20352</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>142</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22773</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4476</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22773</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>104</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23778</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4824</v>
-      </c>
-      <c r="E16" t="n">
-        <v>41</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23778</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18809</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>110</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26575</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5989</v>
-      </c>
-      <c r="E17" t="n">
-        <v>78</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26575</v>
-      </c>
-      <c r="G17" t="n">
-        <v>20398</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>126</v>
-      </c>
-      <c r="C18" t="n">
-        <v>27900</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6662</v>
-      </c>
-      <c r="E18" t="n">
-        <v>86</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27900</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21024</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>124</v>
-      </c>
-      <c r="C19" t="n">
-        <v>35652</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8364</v>
-      </c>
-      <c r="E19" t="n">
-        <v>125</v>
-      </c>
-      <c r="F19" t="n">
-        <v>35652</v>
-      </c>
-      <c r="G19" t="n">
-        <v>27007</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>107</v>
-      </c>
-      <c r="C20" t="n">
-        <v>60533</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10170</v>
-      </c>
-      <c r="E20" t="n">
-        <v>129</v>
-      </c>
-      <c r="F20" t="n">
-        <v>60533</v>
-      </c>
-      <c r="G20" t="n">
-        <v>50106</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>70</v>
-      </c>
-      <c r="C21" t="n">
-        <v>40888</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10077</v>
-      </c>
-      <c r="E21" t="n">
-        <v>117</v>
-      </c>
-      <c r="F21" t="n">
-        <v>40888</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30533</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>38570</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>38570</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>38497</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
